--- a/smoc-admin-ui/src/main/resources/static/files/register/unic.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/register/unic.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>操作类型</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>{rd.accessProvince}</t>
+  </si>
+  <si>
+    <t>{rd.accessCity}</t>
   </si>
   <si>
     <t>{rd.serviceType}</t>
@@ -165,11 +168,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -194,6 +197,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -201,14 +211,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,48 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +252,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,8 +295,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,25 +355,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,157 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,32 +560,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +612,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -643,151 +635,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,7 +1204,7 @@
   <dimension ref="A1:R171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1348,44 +1351,43 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3"/>
+        <v>34</v>
+      </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="23" customHeight="1" spans="2:9">
@@ -2044,6 +2046,9 @@
     </row>
   </sheetData>
   <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 N2">
+      <formula1>"居民身份证15位,居民身份证18位,中国人民解放军军人身份证件,中国人民武装警察身份证件"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 JA1 SW1 ACS1 AMO1 AWK1 BGG1 BQC1 BZY1 CJU1 CTQ1 DDM1 DNI1 DXE1 EHA1 EQW1 FAS1 FKO1 FUK1 GEG1 GOC1 GXY1 HHU1 HRQ1 IBM1 ILI1 IVE1 JFA1 JOW1 JYS1 KIO1 KSK1 LCG1 LMC1 LVY1 MFU1 MPQ1 MZM1 NJI1 NTE1 ODA1 OMW1 OWS1 PGO1 PQK1 QAG1 QKC1 QTY1 RDU1 RNQ1 RXM1 SHI1 SRE1 TBA1 TKW1 TUS1 UEO1 UOK1 UYG1 VIC1 VRY1 WBU1 WLQ1 WVM1">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
@@ -2055,9 +2060,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
       <formula1>INDIRECT($D2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 N2">
-      <formula1>"居民身份证15位,居民身份证18位,中国人民解放军军人身份证件,中国人民武装警察身份证件"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>

--- a/smoc-admin-ui/src/main/resources/static/files/register/unic.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/register/unic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="结算单" sheetId="1" r:id="rId1"/>
@@ -167,12 +167,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -794,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,6 +829,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,8 +1205,8 @@
   <sheetPr/>
   <dimension ref="A1:R171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1291,7 +1293,7 @@
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5">
@@ -1383,10 +1385,10 @@
       <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="13" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2046,14 +2048,14 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 N2">
-      <formula1>"居民身份证15位,居民身份证18位,中国人民解放军军人身份证件,中国人民武装警察身份证件"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 JA1 SW1 ACS1 AMO1 AWK1 BGG1 BQC1 BZY1 CJU1 CTQ1 DDM1 DNI1 DXE1 EHA1 EQW1 FAS1 FKO1 FUK1 GEG1 GOC1 GXY1 HHU1 HRQ1 IBM1 ILI1 IVE1 JFA1 JOW1 JYS1 KIO1 KSK1 LCG1 LMC1 LVY1 MFU1 MPQ1 MZM1 NJI1 NTE1 ODA1 OMW1 OWS1 PGO1 PQK1 QAG1 QKC1 QTY1 RDU1 RNQ1 RXM1 SHI1 SRE1 TBA1 TKW1 TUS1 UEO1 UOK1 UYG1 VIC1 VRY1 WBU1 WLQ1 WVM1">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"新增,删除,修改"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 N2">
+      <formula1>"居民身份证15位,居民身份证18位,中国人民解放军军人身份证件,中国人民武装警察身份证件"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>接入省</formula1>
